--- a/data/output/FV2304_FV2210/UTILMD/11117.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11117.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7670" uniqueCount="488">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7691" uniqueCount="488">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1572,6 +1572,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U337" totalsRowShown="0">
+  <autoFilter ref="A1:U337"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1861,7 +1891,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U337"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -17815,5 +17848,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/UTILMD/11117.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11117.xlsx
@@ -2982,7 +2982,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -3316,7 +3316,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -3450,7 +3450,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -3640,7 +3640,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -3948,7 +3948,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -4094,7 +4094,7 @@
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="4"/>
-      <c r="M25" s="2" t="s">
+      <c r="M25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N25" s="2" t="s">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N32" s="2" t="s">
@@ -4764,7 +4764,7 @@
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N38" s="2" t="s">
@@ -4910,7 +4910,7 @@
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N41" s="2" t="s">
@@ -5110,7 +5110,7 @@
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -5312,7 +5312,7 @@
         <v>467</v>
       </c>
       <c r="L49" s="4"/>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="K52" s="2"/>
       <c r="L52" s="4"/>
-      <c r="M52" s="2" t="s">
+      <c r="M52" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N52" s="2" t="s">
@@ -5614,7 +5614,7 @@
       </c>
       <c r="K55" s="2"/>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -5764,7 +5764,7 @@
       </c>
       <c r="K58" s="2"/>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -5914,7 +5914,7 @@
       </c>
       <c r="K61" s="2"/>
       <c r="L61" s="4"/>
-      <c r="M61" s="2" t="s">
+      <c r="M61" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N61" s="2" t="s">
@@ -6010,7 +6010,7 @@
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="4"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -6160,7 +6160,7 @@
       </c>
       <c r="K66" s="2"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -6364,7 +6364,7 @@
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -6460,7 +6460,7 @@
       </c>
       <c r="K72" s="2"/>
       <c r="L72" s="4"/>
-      <c r="M72" s="2" t="s">
+      <c r="M72" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N72" s="2" t="s">
@@ -6610,7 +6610,7 @@
       </c>
       <c r="K75" s="2"/>
       <c r="L75" s="4"/>
-      <c r="M75" s="2" t="s">
+      <c r="M75" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N75" s="2" t="s">
@@ -6814,7 +6814,7 @@
       </c>
       <c r="K79" s="2"/>
       <c r="L79" s="4"/>
-      <c r="M79" s="2" t="s">
+      <c r="M79" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N79" s="2" t="s">
@@ -7168,7 +7168,7 @@
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="K90" s="2"/>
       <c r="L90" s="4"/>
-      <c r="M90" s="2" t="s">
+      <c r="M90" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N90" s="2" t="s">
@@ -7522,7 +7522,7 @@
       </c>
       <c r="K93" s="2"/>
       <c r="L93" s="4"/>
-      <c r="M93" s="2" t="s">
+      <c r="M93" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N93" s="2" t="s">
@@ -7618,7 +7618,7 @@
       </c>
       <c r="K95" s="2"/>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -7930,7 +7930,7 @@
       </c>
       <c r="K101" s="2"/>
       <c r="L101" s="4"/>
-      <c r="M101" s="2" t="s">
+      <c r="M101" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N101" s="2" t="s">
@@ -8134,7 +8134,7 @@
       </c>
       <c r="K105" s="2"/>
       <c r="L105" s="4"/>
-      <c r="M105" s="2" t="s">
+      <c r="M105" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N105" s="2" t="s">
@@ -8230,7 +8230,7 @@
       </c>
       <c r="K107" s="2"/>
       <c r="L107" s="4"/>
-      <c r="M107" s="2" t="s">
+      <c r="M107" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N107" s="2" t="s">
@@ -8380,7 +8380,7 @@
       </c>
       <c r="K110" s="2"/>
       <c r="L110" s="4"/>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="K114" s="2"/>
       <c r="L114" s="4"/>
-      <c r="M114" s="2" t="s">
+      <c r="M114" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N114" s="2" t="s">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="K116" s="2"/>
       <c r="L116" s="4"/>
-      <c r="M116" s="2" t="s">
+      <c r="M116" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N116" s="2" t="s">
@@ -8830,7 +8830,7 @@
       </c>
       <c r="K119" s="2"/>
       <c r="L119" s="4"/>
-      <c r="M119" s="2" t="s">
+      <c r="M119" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N119" s="2" t="s">
@@ -8926,7 +8926,7 @@
       </c>
       <c r="K121" s="2"/>
       <c r="L121" s="4"/>
-      <c r="M121" s="2" t="s">
+      <c r="M121" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N121" s="2" t="s">
@@ -9076,7 +9076,7 @@
       </c>
       <c r="K124" s="2"/>
       <c r="L124" s="4"/>
-      <c r="M124" s="2" t="s">
+      <c r="M124" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N124" s="2" t="s">
@@ -9430,7 +9430,7 @@
       </c>
       <c r="K131" s="2"/>
       <c r="L131" s="4"/>
-      <c r="M131" s="2" t="s">
+      <c r="M131" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N131" s="2" t="s">
@@ -9526,7 +9526,7 @@
       </c>
       <c r="K133" s="2"/>
       <c r="L133" s="4"/>
-      <c r="M133" s="2" t="s">
+      <c r="M133" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N133" s="2" t="s">
@@ -9678,7 +9678,7 @@
         <v>476</v>
       </c>
       <c r="L136" s="4"/>
-      <c r="M136" s="2" t="s">
+      <c r="M136" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N136" s="2" t="s">
@@ -9826,7 +9826,7 @@
       </c>
       <c r="K139" s="2"/>
       <c r="L139" s="4"/>
-      <c r="M139" s="2" t="s">
+      <c r="M139" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N139" s="2" t="s">
@@ -10946,7 +10946,7 @@
         <v>479</v>
       </c>
       <c r="L160" s="4"/>
-      <c r="M160" s="2" t="s">
+      <c r="M160" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N160" s="2" t="s">
@@ -12124,7 +12124,7 @@
       </c>
       <c r="K182" s="2"/>
       <c r="L182" s="4"/>
-      <c r="M182" s="2" t="s">
+      <c r="M182" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N182" s="2" t="s">
@@ -12272,7 +12272,7 @@
         <v>480</v>
       </c>
       <c r="L185" s="4"/>
-      <c r="M185" s="2" t="s">
+      <c r="M185" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N185" s="2" t="s">
@@ -12480,7 +12480,7 @@
         <v>481</v>
       </c>
       <c r="L189" s="4"/>
-      <c r="M189" s="2" t="s">
+      <c r="M189" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N189" s="2" t="s">
@@ -12634,7 +12634,7 @@
         <v>481</v>
       </c>
       <c r="L192" s="4"/>
-      <c r="M192" s="2" t="s">
+      <c r="M192" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N192" s="2" t="s">
@@ -12840,7 +12840,7 @@
       </c>
       <c r="K196" s="2"/>
       <c r="L196" s="4"/>
-      <c r="M196" s="2" t="s">
+      <c r="M196" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N196" s="2" t="s">
@@ -13086,7 +13086,7 @@
       </c>
       <c r="K201" s="2"/>
       <c r="L201" s="4"/>
-      <c r="M201" s="2" t="s">
+      <c r="M201" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N201" s="2" t="s">
@@ -13182,7 +13182,7 @@
       </c>
       <c r="K203" s="2"/>
       <c r="L203" s="4"/>
-      <c r="M203" s="2" t="s">
+      <c r="M203" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N203" s="2" t="s">
@@ -13278,7 +13278,7 @@
       </c>
       <c r="K205" s="2"/>
       <c r="L205" s="4"/>
-      <c r="M205" s="2" t="s">
+      <c r="M205" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N205" s="2" t="s">
@@ -13424,7 +13424,7 @@
       </c>
       <c r="K208" s="2"/>
       <c r="L208" s="4"/>
-      <c r="M208" s="2" t="s">
+      <c r="M208" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N208" s="2" t="s">
@@ -13520,7 +13520,7 @@
       </c>
       <c r="K210" s="2"/>
       <c r="L210" s="4"/>
-      <c r="M210" s="2" t="s">
+      <c r="M210" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N210" s="2" t="s">
@@ -13666,7 +13666,7 @@
       </c>
       <c r="K213" s="2"/>
       <c r="L213" s="4"/>
-      <c r="M213" s="2" t="s">
+      <c r="M213" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N213" s="2" t="s">
@@ -13762,7 +13762,7 @@
       </c>
       <c r="K215" s="2"/>
       <c r="L215" s="4"/>
-      <c r="M215" s="2" t="s">
+      <c r="M215" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N215" s="2" t="s">
@@ -13908,7 +13908,7 @@
       </c>
       <c r="K218" s="2"/>
       <c r="L218" s="4"/>
-      <c r="M218" s="2" t="s">
+      <c r="M218" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N218" s="2" t="s">
@@ -14112,7 +14112,7 @@
       </c>
       <c r="K222" s="2"/>
       <c r="L222" s="4"/>
-      <c r="M222" s="2" t="s">
+      <c r="M222" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N222" s="2" t="s">
@@ -14210,7 +14210,7 @@
         <v>482</v>
       </c>
       <c r="L224" s="4"/>
-      <c r="M224" s="2" t="s">
+      <c r="M224" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N224" s="2" t="s">
@@ -14470,7 +14470,7 @@
       </c>
       <c r="K229" s="2"/>
       <c r="L229" s="4"/>
-      <c r="M229" s="2" t="s">
+      <c r="M229" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N229" s="2" t="s">
@@ -14622,7 +14622,7 @@
         <v>484</v>
       </c>
       <c r="L232" s="4"/>
-      <c r="M232" s="2" t="s">
+      <c r="M232" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N232" s="2" t="s">
@@ -14776,7 +14776,7 @@
         <v>484</v>
       </c>
       <c r="L235" s="4"/>
-      <c r="M235" s="2" t="s">
+      <c r="M235" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N235" s="2" t="s">
@@ -14924,7 +14924,7 @@
       </c>
       <c r="K238" s="2"/>
       <c r="L238" s="4"/>
-      <c r="M238" s="2" t="s">
+      <c r="M238" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N238" s="2" t="s">
@@ -15128,7 +15128,7 @@
       </c>
       <c r="K242" s="2"/>
       <c r="L242" s="4"/>
-      <c r="M242" s="2" t="s">
+      <c r="M242" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N242" s="2" t="s">
@@ -15482,7 +15482,7 @@
       </c>
       <c r="K249" s="2"/>
       <c r="L249" s="4"/>
-      <c r="M249" s="2" t="s">
+      <c r="M249" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N249" s="2" t="s">
@@ -15690,7 +15690,7 @@
       </c>
       <c r="K253" s="2"/>
       <c r="L253" s="4"/>
-      <c r="M253" s="2" t="s">
+      <c r="M253" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N253" s="2" t="s">
@@ -15836,7 +15836,7 @@
       </c>
       <c r="K256" s="2"/>
       <c r="L256" s="4"/>
-      <c r="M256" s="2" t="s">
+      <c r="M256" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N256" s="2" t="s">
@@ -16128,7 +16128,7 @@
       </c>
       <c r="K262" s="2"/>
       <c r="L262" s="4"/>
-      <c r="M262" s="2" t="s">
+      <c r="M262" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N262" s="2" t="s">
@@ -16274,7 +16274,7 @@
       </c>
       <c r="K265" s="2"/>
       <c r="L265" s="4"/>
-      <c r="M265" s="2" t="s">
+      <c r="M265" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N265" s="2" t="s">
@@ -16478,7 +16478,7 @@
       </c>
       <c r="K269" s="2"/>
       <c r="L269" s="4"/>
-      <c r="M269" s="2" t="s">
+      <c r="M269" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N269" s="2" t="s">
@@ -16574,7 +16574,7 @@
       </c>
       <c r="K271" s="2"/>
       <c r="L271" s="4"/>
-      <c r="M271" s="2" t="s">
+      <c r="M271" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N271" s="2" t="s">
@@ -16720,7 +16720,7 @@
       </c>
       <c r="K274" s="2"/>
       <c r="L274" s="4"/>
-      <c r="M274" s="2" t="s">
+      <c r="M274" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N274" s="2" t="s">
@@ -16818,7 +16818,7 @@
         <v>486</v>
       </c>
       <c r="L276" s="4"/>
-      <c r="M276" s="2" t="s">
+      <c r="M276" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N276" s="2" t="s">
@@ -16966,7 +16966,7 @@
       </c>
       <c r="K279" s="2"/>
       <c r="L279" s="4"/>
-      <c r="M279" s="2" t="s">
+      <c r="M279" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N279" s="2" t="s">
@@ -17278,7 +17278,7 @@
       </c>
       <c r="K285" s="2"/>
       <c r="L285" s="4"/>
-      <c r="M285" s="2" t="s">
+      <c r="M285" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N285" s="2" t="s">
@@ -17374,7 +17374,7 @@
       </c>
       <c r="K287" s="2"/>
       <c r="L287" s="4"/>
-      <c r="M287" s="2" t="s">
+      <c r="M287" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N287" s="2" t="s">
@@ -17520,7 +17520,7 @@
       </c>
       <c r="K290" s="2"/>
       <c r="L290" s="4"/>
-      <c r="M290" s="2" t="s">
+      <c r="M290" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N290" s="2" t="s">
@@ -17616,7 +17616,7 @@
       </c>
       <c r="K292" s="2"/>
       <c r="L292" s="4"/>
-      <c r="M292" s="2" t="s">
+      <c r="M292" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N292" s="2" t="s">
@@ -17762,7 +17762,7 @@
       </c>
       <c r="K295" s="2"/>
       <c r="L295" s="4"/>
-      <c r="M295" s="2" t="s">
+      <c r="M295" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N295" s="2" t="s">
@@ -18128,7 +18128,7 @@
       </c>
       <c r="K302" s="2"/>
       <c r="L302" s="4"/>
-      <c r="M302" s="2" t="s">
+      <c r="M302" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N302" s="2" t="s">
@@ -18224,7 +18224,7 @@
       </c>
       <c r="K304" s="2"/>
       <c r="L304" s="4"/>
-      <c r="M304" s="2" t="s">
+      <c r="M304" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N304" s="2" t="s">
@@ -18370,7 +18370,7 @@
       </c>
       <c r="K307" s="2"/>
       <c r="L307" s="4"/>
-      <c r="M307" s="2" t="s">
+      <c r="M307" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N307" s="2" t="s">
@@ -18466,7 +18466,7 @@
       </c>
       <c r="K309" s="2"/>
       <c r="L309" s="4"/>
-      <c r="M309" s="2" t="s">
+      <c r="M309" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N309" s="2" t="s">
@@ -18612,7 +18612,7 @@
       </c>
       <c r="K312" s="2"/>
       <c r="L312" s="4"/>
-      <c r="M312" s="2" t="s">
+      <c r="M312" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N312" s="2" t="s">
@@ -18762,7 +18762,7 @@
       </c>
       <c r="K315" s="2"/>
       <c r="L315" s="4"/>
-      <c r="M315" s="2" t="s">
+      <c r="M315" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N315" s="2" t="s">
@@ -18954,7 +18954,7 @@
       </c>
       <c r="K319" s="2"/>
       <c r="L319" s="4"/>
-      <c r="M319" s="2" t="s">
+      <c r="M319" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N319" s="2" t="s">
@@ -19104,7 +19104,7 @@
       </c>
       <c r="K322" s="2"/>
       <c r="L322" s="4"/>
-      <c r="M322" s="2" t="s">
+      <c r="M322" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N322" s="2" t="s">
@@ -19200,7 +19200,7 @@
       </c>
       <c r="K324" s="2"/>
       <c r="L324" s="4"/>
-      <c r="M324" s="2" t="s">
+      <c r="M324" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N324" s="2" t="s">
@@ -19346,7 +19346,7 @@
       </c>
       <c r="K327" s="2"/>
       <c r="L327" s="4"/>
-      <c r="M327" s="2" t="s">
+      <c r="M327" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N327" s="2" t="s">
@@ -19496,7 +19496,7 @@
       </c>
       <c r="K330" s="2"/>
       <c r="L330" s="4"/>
-      <c r="M330" s="2" t="s">
+      <c r="M330" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N330" s="2" t="s">
@@ -19592,7 +19592,7 @@
       </c>
       <c r="K332" s="2"/>
       <c r="L332" s="4"/>
-      <c r="M332" s="2" t="s">
+      <c r="M332" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N332" s="2" t="s">
@@ -19740,7 +19740,7 @@
       </c>
       <c r="K335" s="2"/>
       <c r="L335" s="4"/>
-      <c r="M335" s="2" t="s">
+      <c r="M335" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N335" s="2"/>
